--- a/verif_results/no_exact/datos_verificacion_softplus_1como7.xlsx
+++ b/verif_results/no_exact/datos_verificacion_softplus_1como7.xlsx
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>8.029897689819336</v>
+        <v>8.510186910629272</v>
       </c>
       <c r="F1" t="n">
-        <v>2440</v>
+        <v>2546</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>7.819755554199219</v>
+        <v>10.39326906204224</v>
       </c>
       <c r="L1" t="n">
-        <v>2384</v>
+        <v>2784</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -496,13 +496,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.52356314659119</v>
+        <v>95.07908701896667</v>
       </c>
       <c r="F2" t="n">
-        <v>16779</v>
+        <v>18174</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07762969833757</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>88.60302352905273</v>
+        <v>99.55155301094055</v>
       </c>
       <c r="L2" t="n">
-        <v>19207</v>
+        <v>20510</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>200.8273198604584</v>
+        <v>322.3918619155884</v>
       </c>
       <c r="F3" t="n">
-        <v>82608</v>
+        <v>130974</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>200.7095019817352</v>
+        <v>338.1318693161011</v>
       </c>
       <c r="L3" t="n">
-        <v>78212</v>
+        <v>135700</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0012049674988</v>
+        <v>900.0013864040375</v>
       </c>
       <c r="F4" t="n">
-        <v>106956</v>
+        <v>106075</v>
       </c>
       <c r="G4" t="n">
-        <v>37.98221547141732</v>
+        <v>29.56665497447466</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>900.0013449192047</v>
+        <v>900.0012300014496</v>
       </c>
       <c r="L4" t="n">
-        <v>100238</v>
+        <v>115339</v>
       </c>
       <c r="M4" t="n">
-        <v>43.50536655026973</v>
+        <v>29.99413582274661</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>174.377491235733</v>
+        <v>191.955694437027</v>
       </c>
       <c r="F5" t="n">
-        <v>39287</v>
+        <v>45412</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>182.1994421482086</v>
+        <v>180.4668190479279</v>
       </c>
       <c r="L5" t="n">
-        <v>42831</v>
+        <v>46482</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.89142513275146</v>
+        <v>55.21255683898926</v>
       </c>
       <c r="F6" t="n">
-        <v>1154</v>
+        <v>3724</v>
       </c>
       <c r="G6" t="n">
-        <v>112.4941815441655</v>
+        <v>111.0178310072132</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>83.61676836013794</v>
+        <v>22.56117558479309</v>
       </c>
       <c r="L6" t="n">
-        <v>6290</v>
+        <v>1474</v>
       </c>
       <c r="M6" t="n">
-        <v>114.8210462880399</v>
+        <v>113.4851165330645</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.0013132095337</v>
+        <v>242.9087197780609</v>
       </c>
       <c r="F7" t="n">
-        <v>144030</v>
+        <v>30847</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6997026250992903</v>
+        <v>1.500611469099352</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>900.0014708042145</v>
+        <v>900.0014362335205</v>
       </c>
       <c r="L7" t="n">
-        <v>143719</v>
+        <v>152015</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6632141178991419</v>
+        <v>0.6475593571658617</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>550.7684705257416</v>
+        <v>176.5037758350372</v>
       </c>
       <c r="F8" t="n">
-        <v>27094</v>
+        <v>8830</v>
       </c>
       <c r="G8" t="n">
-        <v>205.9387998905701</v>
+        <v>144.9351221923107</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>448.0594272613525</v>
+        <v>107.0755898952484</v>
       </c>
       <c r="L8" t="n">
-        <v>24651</v>
+        <v>4508</v>
       </c>
       <c r="M8" t="n">
-        <v>142.2256433337537</v>
+        <v>134.3310766545974</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>146.9988570213318</v>
+        <v>208.5572917461395</v>
       </c>
       <c r="F9" t="n">
-        <v>12907</v>
+        <v>19154</v>
       </c>
       <c r="G9" t="n">
-        <v>13.20071570296059</v>
+        <v>9.319314540179985</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>175.4629786014557</v>
+        <v>61.16369318962097</v>
       </c>
       <c r="L9" t="n">
-        <v>15412</v>
+        <v>4852</v>
       </c>
       <c r="M9" t="n">
-        <v>10.1263135059782</v>
+        <v>20.12463959187487</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10.99295568466187</v>
+        <v>21.92494034767151</v>
       </c>
       <c r="F10" t="n">
-        <v>529</v>
+        <v>1113</v>
       </c>
       <c r="G10" t="n">
-        <v>101.4574143925832</v>
+        <v>101.776037767673</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>25.02896690368652</v>
+        <v>18.18215179443359</v>
       </c>
       <c r="L10" t="n">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="M10" t="n">
-        <v>101.8695667724131</v>
+        <v>101.8245487616477</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1027,13 +1027,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.0010170936584</v>
+        <v>900.0009794235229</v>
       </c>
       <c r="F11" t="n">
-        <v>44442</v>
+        <v>51587</v>
       </c>
       <c r="G11" t="n">
-        <v>40.19254446928299</v>
+        <v>25.45131673809531</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>816.5221750736237</v>
+        <v>900.0010011196136</v>
       </c>
       <c r="L11" t="n">
-        <v>42135</v>
+        <v>55227</v>
       </c>
       <c r="M11" t="n">
-        <v>29.14813288922187</v>
+        <v>31.95522551205471</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
     </row>
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0006098747253</v>
+        <v>809.7734303474426</v>
       </c>
       <c r="F12" t="n">
-        <v>16491</v>
+        <v>18481</v>
       </c>
       <c r="G12" t="n">
-        <v>105.4518139161967</v>
+        <v>104.805833045302</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>900.0007200241089</v>
+        <v>589.2023768424988</v>
       </c>
       <c r="L12" t="n">
-        <v>20770</v>
+        <v>19950</v>
       </c>
       <c r="M12" t="n">
-        <v>105.0880914574025</v>
+        <v>105.7036473438235</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
     </row>
